--- a/数据整理/stocks/港股/09633-农夫山泉.xlsx
+++ b/数据整理/stocks/港股/09633-农夫山泉.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006786</t>
+          <t>009542</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰康中证港股通大消费主题指数A</t>
+          <t>银华富利精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>95.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.7765</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006787</t>
+          <t>009896</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰康中证港股通大消费主题指数C</t>
+          <t>广发港股通成长精选股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>86.93</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>61.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6861</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>513900</t>
+          <t>009190</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华安CES港股通精选100ETF</t>
+          <t>景顺长城核心优选一年持有期混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>96.00</t>
+          <t>62.80</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2357</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009896</t>
+          <t>009897</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发港股通成长精选股票A</t>
+          <t>广发港股通成长精选股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>61.76</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.09</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3025</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009897</t>
+          <t>160322</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发港股通成长精选股票C</t>
+          <t>华夏港股通精选股票(LOF)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>61.76</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>160322</t>
+          <t>006786</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华夏港股通精选股票(LOF)</t>
+          <t>泰康中证港股通大消费主题指数A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.70</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009190</t>
+          <t>006787</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>景顺长城核心优选一年持有期混合</t>
+          <t>泰康中证港股通大消费主题指数C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009542</t>
+          <t>513900</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>银华富利精选混合</t>
+          <t>华安CES港股通精选100ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.23</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
+          <t>96.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -721,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,15 +832,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -762,26 +862,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009896</t>
+          <t>009542</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发港股通成长精选股票A</t>
+          <t>银华富利精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.68</t>
+          <t>55.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1505</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -790,25 +900,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009897</t>
+          <t>009896</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发港股通成长精选股票C</t>
+          <t>广发港股通成长精选股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>59.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>90.68</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.38</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0006</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -818,26 +938,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006786</t>
+          <t>009897</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰康中证港股通大消费主题指数A</t>
+          <t>广发港股通成长精选股票C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>9.79</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3309</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -846,25 +976,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006787</t>
+          <t>006786</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰康中证港股通大消费主题指数C</t>
+          <t>泰康中证港股通大消费主题指数A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>94.24</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.21</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -874,25 +1014,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009542</t>
+          <t>006787</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>银华富利精选混合</t>
+          <t>泰康中证港股通大消费主题指数C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.15</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.63</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/09633-农夫山泉.xlsx
+++ b/数据整理/stocks/港股/09633-农夫山泉.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1049,4 +1050,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3056</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3879</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159803</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达中证浙江新动能ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/09633-农夫山泉.xlsx
+++ b/数据整理/stocks/港股/09633-农夫山泉.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1220,4 +1221,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011783</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德睿源三年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7469</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3465</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3936</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159735</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/09633-农夫山泉.xlsx
+++ b/数据整理/stocks/港股/09633-农夫山泉.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1505,4 +1506,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.09</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/09633-农夫山泉.xlsx
+++ b/数据整理/stocks/港股/09633-农夫山泉.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1514,7 +1515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1525,17 +1526,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1545,14 +1566,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.55</v>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.7514</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1561,14 +1604,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.7</v>
+          <t>011783</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德睿源三年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.5023</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1577,14 +1642,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.53</v>
+          <t>011136</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发盛兴混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>29.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4125</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1593,13 +1680,607 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010161</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3626</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012193</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泓德睿诚混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6527</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5018</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012408</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发恒昌一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>48.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3690</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011137</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发盛兴混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1356</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>513590</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0958</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159735</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012194</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泓德睿诚混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010162</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012409</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发恒昌一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>11.09</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/09633-农夫山泉.xlsx
+++ b/数据整理/stocks/港股/09633-农夫山泉.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2179,7 +2180,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2190,17 +2191,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2210,14 +2231,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.03</v>
+          <t>011136</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发盛兴混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1383</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2226,14 +2269,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.55</v>
+          <t>010161</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4031</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2242,14 +2307,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.7</v>
+          <t>011137</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发盛兴混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2258,14 +2345,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.53</v>
+          <t>010162</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2274,13 +2383,319 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159735</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>513230</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>513590</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.53</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>11.09</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/09633-农夫山泉.xlsx
+++ b/数据整理/stocks/港股/09633-农夫山泉.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2578,7 +2579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2589,17 +2590,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2609,14 +2630,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.79</v>
+          <t>011136</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发盛兴混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1306</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2625,14 +2668,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>16.03</v>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1091</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2641,14 +2706,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>010161</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3848</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.55</v>
       </c>
     </row>
     <row r="5">
@@ -2657,14 +2744,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.7</v>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3405</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2673,14 +2782,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5.53</v>
+          <t>011137</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发盛兴混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1054</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2689,13 +2820,373 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010162</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159735</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>513230</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>96.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>513590</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.53</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>8</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>11.09</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/09633-农夫山泉.xlsx
+++ b/数据整理/stocks/港股/09633-农夫山泉.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>3.22</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>1.79</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>16.03</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>5.55</v>
+        <v>16.03</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>2.7</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>5.53</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.53</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>8</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>11.09</v>
       </c>
     </row>
@@ -600,6 +617,896 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0834</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3469</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012342</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发瑞泽精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2246</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010161</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2154</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>513960</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时港股通消费ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159735</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008519</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中金中证沪港深优选消费50指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>513230</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>96.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>513070</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>513590</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.92</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010162</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012343</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发瑞泽精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>517550</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商中证沪港深消费龙头ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>97.94</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008520</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中金中证沪港深优选消费50指数C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013129</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深消费龙头指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>517760</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浦银安盛中证沪港深消费龙头ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013130</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深消费龙头指数C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014163</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1073,7 +1980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1471,7 +2378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2135,7 +3042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2419,7 +3326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2589,7 +3496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2835,7 +3742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/09633-农夫山泉.xlsx
+++ b/数据整理/stocks/港股/09633-农夫山泉.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>2.2</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>3.22</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>1.79</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>16.03</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>5.55</v>
+        <v>16.03</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>2.7</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>5.53</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.53</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>8</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>11.09</v>
       </c>
     </row>
@@ -616,7 +633,1069 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009542</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华富利精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>95.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.7765</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>86.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>61.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6861</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009190</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城核心优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>62.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2357</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>61.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3025</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>96.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9854</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2655</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159735</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>513070</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008519</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中金中证沪港深优选消费50指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>513590</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>513960</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时港股通消费ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>96.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>513230</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>517760</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浦银安盛中证沪港深消费龙头ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>517880</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深品牌消费50ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008520</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中金中证沪港深优选消费50指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013129</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深消费龙头指数A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013130</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深消费龙头指数C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014163</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1506,7 +2585,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1980,7 +3059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2378,7 +3457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3042,7 +4121,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3326,7 +4405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3496,7 +4575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3740,364 +4819,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009542</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银华富利精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>95.48</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.23</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>5.7765</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009896</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发港股通成长精选股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>86.93</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>61.76</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.6861</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009190</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>景顺长城核心优选一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>62.80</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.44</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.2357</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009897</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发港股通成长精选股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>9.79</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>61.76</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3025</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>160322</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华夏港股通精选股票(LOF)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.70</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0376</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006786</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>泰康中证港股通大消费主题指数A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0234</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006787</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>泰康中证港股通大消费主题指数C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0198</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>513900</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华安CES港股通精选100ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>96.00</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0057</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>